--- a/mechanical/Mouser TSynth Rev 1.1 BOM.xlsx
+++ b/mechanical/Mouser TSynth Rev 1.1 BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/74c00edc937fedf6/Documents/Electronics/TSynth2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFB8E69E-7788-4F2C-8252-D52D2C0549C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70D886BD-8317-43E4-B2C4-6F93C771AC47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="900" windowWidth="25695" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="1665" windowWidth="22980" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cart" sheetId="1" r:id="rId1"/>
@@ -103,18 +103,12 @@
     <t>474-DEV-15421</t>
   </si>
   <si>
-    <t>652-PTV09A-4015UB103</t>
-  </si>
-  <si>
     <t>Omron</t>
   </si>
   <si>
     <t>$1.63</t>
   </si>
   <si>
-    <t>PTV09A-4015U-B103</t>
-  </si>
-  <si>
     <t>530-SS-52100-001</t>
   </si>
   <si>
@@ -248,6 +242,12 @@
   </si>
   <si>
     <t>$0.98</t>
+  </si>
+  <si>
+    <t>PTV09A-4025U-B103</t>
+  </si>
+  <si>
+    <t>652-PTV09A-4025UB103</t>
   </si>
 </sst>
 </file>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,25 +647,25 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -676,10 +676,10 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -691,13 +691,13 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -705,10 +705,10 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -723,59 +723,59 @@
         <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -784,7 +784,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>23</v>
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -807,13 +807,13 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -822,50 +822,50 @@
         <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -880,53 +880,53 @@
         <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -944,27 +944,27 @@
         <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -973,51 +973,51 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
